--- a/DE2/DE2BaudRateVaerdier.xlsx
+++ b/DE2/DE2BaudRateVaerdier.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Universitet\Elektronik\2. semester\PRJ\Gitmappen\DE2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Universitet\Elektronik\2. semester\PRJ\Gitmappen\Semesterprojekt2\DE2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>CLOCK</t>
   </si>
@@ -38,15 +38,31 @@
     <t>Anden when</t>
   </si>
   <si>
-    <t>Baud</t>
+    <t>Perfekt Baud</t>
+  </si>
+  <si>
+    <t>Reel 1.</t>
+  </si>
+  <si>
+    <t>Reel 2.</t>
+  </si>
+  <si>
+    <t>Reel Baud</t>
+  </si>
+  <si>
+    <t>Tid for 1</t>
+  </si>
+  <si>
+    <t>Tid for 129</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="##0.00E+0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -77,9 +93,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,18 +378,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,7 +402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -392,8 +412,23 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2400</v>
       </c>
@@ -405,8 +440,27 @@
         <f>$B$1/A3</f>
         <v>20833.333333333332</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="2">
+        <v>20832</v>
+      </c>
+      <c r="E3" s="2">
+        <f>D3+1</f>
+        <v>20833</v>
+      </c>
+      <c r="F3">
+        <f>$B$1/E3</f>
+        <v>2400.03840061441</v>
+      </c>
+      <c r="G3" s="3">
+        <f>1/F3</f>
+        <v>4.1665999999999996E-4</v>
+      </c>
+      <c r="H3" s="3">
+        <f>129*G3</f>
+        <v>5.3749139999999994E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9600</v>
       </c>
@@ -418,8 +472,27 @@
         <f t="shared" ref="C4:C8" si="1">$B$1/A4</f>
         <v>5208.333333333333</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2">
+        <v>5207</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E8" si="2">D4+1</f>
+        <v>5208</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F8" si="3">$B$1/E4</f>
+        <v>9600.6144393241175</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G8" si="4">1/F4</f>
+        <v>1.0415999999999999E-4</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H8" si="5">129*G4</f>
+        <v>1.343664E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>19200</v>
       </c>
@@ -431,8 +504,27 @@
         <f t="shared" si="1"/>
         <v>2604.1666666666665</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="2">
+        <v>2603</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="2"/>
+        <v>2604</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>19201.228878648235</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="4"/>
+        <v>5.2079999999999996E-5</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="5"/>
+        <v>6.7183199999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>38400</v>
       </c>
@@ -444,8 +536,27 @@
         <f t="shared" si="1"/>
         <v>1302.0833333333333</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <v>1301</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="2"/>
+        <v>1302</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>38402.45775729647</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="4"/>
+        <v>2.6039999999999998E-5</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="5"/>
+        <v>3.3591599999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>57600</v>
       </c>
@@ -457,8 +568,27 @@
         <f t="shared" si="1"/>
         <v>868.05555555555554</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="2">
+        <v>867</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="2"/>
+        <v>868</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>57603.686635944701</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="4"/>
+        <v>1.736E-5</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="5"/>
+        <v>2.2394400000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>115200</v>
       </c>
@@ -470,8 +600,28 @@
         <f t="shared" si="1"/>
         <v>434.02777777777777</v>
       </c>
+      <c r="D8" s="2">
+        <v>433</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="2"/>
+        <v>434</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>115207.3732718894</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="4"/>
+        <v>8.6799999999999999E-6</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="5"/>
+        <v>1.11972E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>